--- a/biology/Botanique/Adiantum_formosum/Adiantum_formosum.xlsx
+++ b/biology/Botanique/Adiantum_formosum/Adiantum_formosum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adiantum formosum est une espèce de fougères de la famille des Pteridaceae originaire d'Australie et de Nouvelle-Zélande. C'est l'une des nombreuses espèces décrite par le botaniste écossais Robert Brown, figurant dans son travail de 1810 Prodromus Florae Novae Hollandiae et Insulae Van Diemen. Son épithète spécifique vient de l'adjectif latin formosus qui veut dire « beau ». 
 C'est une plante attrayante avec des frondes atteignant jusqu'à 120 cm de hauteur. Son rhizome est exceptionnellement profond, pouvant atteindre jusqu'à 60 cm (de profondeur. Les tiges sont de couleur noire et peuvent atteindre 90 cm de longueur, les frondes sont triangulaires avec des portions rectangulaires. Le dernier segment de la fronde est irrégulier et asymétrique, au bout d'une courte tige. Elle a de 1 à 10 sores le long du bord de sa face inférieure.  
